--- a/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05149381886390521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.052655104927165</v>
+        <v>0.05265510492716501</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01911845422777428</v>
@@ -685,7 +685,7 @@
         <v>0.07822524299710838</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06078753712892849</v>
+        <v>0.06078753712892847</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01928983747529706</v>
@@ -697,7 +697,7 @@
         <v>0.06488988028101088</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05677825786290575</v>
+        <v>0.05677825786290574</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005048123661701197</v>
+        <v>0.005021422810060127</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01704891027789076</v>
+        <v>0.01697854638893971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02820520436722889</v>
+        <v>0.02752296291935433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02691473942360439</v>
+        <v>0.02580606772700914</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004953425781224654</v>
+        <v>0.004902350620533927</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02292573492647257</v>
+        <v>0.02417177567584428</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04842156240807922</v>
+        <v>0.04861560987394439</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03832600550232036</v>
+        <v>0.03856738317016273</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009460044702620348</v>
+        <v>0.007535689604299032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02515445789856449</v>
+        <v>0.02614752680664365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04473102540850919</v>
+        <v>0.04534968090743105</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03791558092236123</v>
+        <v>0.03872700213020461</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0495291815820391</v>
+        <v>0.04502644277161247</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07139739198109742</v>
+        <v>0.07205393955481161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08839649293096949</v>
+        <v>0.0869879495517408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1005523609637986</v>
+        <v>0.1005108322382528</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04844366081913388</v>
+        <v>0.04548520572978922</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08517289619117865</v>
+        <v>0.08516452394378649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1198786158500117</v>
+        <v>0.1165164764446386</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09172478718509121</v>
+        <v>0.09300922078987486</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03829384719339761</v>
+        <v>0.03690022154943384</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06550267316910052</v>
+        <v>0.06616946039451659</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08893915950685663</v>
+        <v>0.09030084055189375</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08190690278195496</v>
+        <v>0.08283609958019918</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02196634414302514</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0351369078807057</v>
+        <v>0.03513690788070571</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04238877138679056</v>
@@ -833,7 +833,7 @@
         <v>0.02412630615188768</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0451138002293087</v>
+        <v>0.04511380022930871</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01542782276770997</v>
+        <v>0.01694647334556128</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02741826362180146</v>
+        <v>0.02673320427772024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01064546327061688</v>
+        <v>0.008341321317904087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01984992208798291</v>
+        <v>0.01996987431080133</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02566263437060624</v>
+        <v>0.02649254644895626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01366620126703314</v>
+        <v>0.01200027133497979</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01460467346946254</v>
+        <v>0.01247446574503964</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03819102917777251</v>
+        <v>0.03933112449086178</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02448803403926503</v>
+        <v>0.0249161044500368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02361393022516905</v>
+        <v>0.02375789692943038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01560494689662709</v>
+        <v>0.01518171177460429</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0337643250489939</v>
+        <v>0.03384202320214406</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05335058884443505</v>
+        <v>0.05476517725044999</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06918080454097621</v>
+        <v>0.06810346491865783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04093612930777733</v>
+        <v>0.04128285341164172</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06030195598446475</v>
+        <v>0.05826115247807197</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06230972566100734</v>
+        <v>0.06682384451175193</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04639328471531377</v>
+        <v>0.04482982496070679</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04738728762379386</v>
+        <v>0.04679294027255868</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07715677619038119</v>
+        <v>0.07772666347150539</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05140655004456117</v>
+        <v>0.0512722368633497</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04960212167929481</v>
+        <v>0.04934429490997801</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0396405048225946</v>
+        <v>0.0392105169674877</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0612867351340135</v>
+        <v>0.06096100687100984</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004217766692362309</v>
+        <v>0.004222613940177012</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01278832802938572</v>
+        <v>0.01248546805208662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01431111381304153</v>
+        <v>0.01548618026732896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00793469088335497</v>
+        <v>0.008183366328826949</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009715048368980968</v>
+        <v>0.006692016109729497</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0212304458816792</v>
+        <v>0.0215411622962526</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01540819514183684</v>
+        <v>0.01549906833256928</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008369038105592504</v>
+        <v>0.008377304161283683</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009372538110408377</v>
+        <v>0.009347902261839326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02176600516341079</v>
+        <v>0.02119078369076783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01958540211167559</v>
+        <v>0.02001724904825522</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01017930807394859</v>
+        <v>0.01072986637396589</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03897847256553828</v>
+        <v>0.03849623198790991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05122809798418639</v>
+        <v>0.0488303398158473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05634828277889344</v>
+        <v>0.06051209892223952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04455324347823927</v>
+        <v>0.04395311645634661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04306375413364119</v>
+        <v>0.04361104637955074</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06449510254210784</v>
+        <v>0.06578008656290669</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06047780297729604</v>
+        <v>0.05808773202464652</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03273835369207592</v>
+        <v>0.03155641643917567</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03392316043793229</v>
+        <v>0.03190840479268107</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04979431887348214</v>
+        <v>0.04894624426458261</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04964789530665823</v>
+        <v>0.04998875437627991</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03026594645829818</v>
+        <v>0.03089293171005404</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01433627161545328</v>
+        <v>0.01365905104307078</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01262630978734814</v>
+        <v>0.01345136148133089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0109369834639463</v>
+        <v>0.01137318309085973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003017690865623101</v>
+        <v>0.003102652048129978</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03751689035473794</v>
+        <v>0.03860669917356468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02505066405997235</v>
+        <v>0.02568035142600896</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01376179448526492</v>
+        <v>0.01343022976655347</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009232629267005289</v>
+        <v>0.00959968641472074</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03134502664144483</v>
+        <v>0.03094606860076338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02325195759998831</v>
+        <v>0.02352482809726985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01535125011712491</v>
+        <v>0.01564469593090482</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008884948605756301</v>
+        <v>0.009256233870405141</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06156788006807718</v>
+        <v>0.06068364164926025</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05696209574165535</v>
+        <v>0.05973795439117071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04904927422379912</v>
+        <v>0.05106056305956719</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05942769346308717</v>
+        <v>0.05935711635109925</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09533136301816632</v>
+        <v>0.09069630674856545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07196648788517042</v>
+        <v>0.07040431641567677</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0498128913139876</v>
+        <v>0.04751310975205422</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04119134065957548</v>
+        <v>0.0417332836550542</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06488346214298615</v>
+        <v>0.06638916574121338</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05823609707507886</v>
+        <v>0.05576112173571857</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04202134963931094</v>
+        <v>0.04171079025311954</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03727392503427583</v>
+        <v>0.03816883517077562</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.03668051393774371</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02954681034688351</v>
+        <v>0.0295468103468835</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04319070585082992</v>
@@ -1241,7 +1241,7 @@
         <v>0.04288721530175522</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02848112992614951</v>
+        <v>0.02848112992614949</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02545845800407081</v>
+        <v>0.02167335636829633</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01024326925822873</v>
+        <v>0.0102683425719025</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0163904143711516</v>
+        <v>0.01896478788372713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01154906344688142</v>
+        <v>0.01008907751863649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01529088954785157</v>
+        <v>0.01479481418328075</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01067553266671275</v>
+        <v>0.01018916016866254</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01228967311303383</v>
+        <v>0.01240502046034021</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01348036024682621</v>
+        <v>0.01219978916210946</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02344220448493689</v>
+        <v>0.02638215967679293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01493647050182422</v>
+        <v>0.01312890837913919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02398349028594643</v>
+        <v>0.02182078754105104</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01666140355162658</v>
+        <v>0.01566475263825847</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09410544799400682</v>
+        <v>0.0860186018354262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05777009457130568</v>
+        <v>0.0553683271062268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09748425088014318</v>
+        <v>0.1067739992088419</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05664066095517829</v>
+        <v>0.05620486051671936</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07995771988145686</v>
+        <v>0.08543449827285914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06400608706646209</v>
+        <v>0.06078742136065425</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07444642669884233</v>
+        <v>0.07407610320824438</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06139260961930425</v>
+        <v>0.06211335844767719</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06674459141829443</v>
+        <v>0.07094825628459057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0480235847071003</v>
+        <v>0.04701380499706964</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07251238234215071</v>
+        <v>0.0723717657925798</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04626322707690603</v>
+        <v>0.04792158152169423</v>
       </c>
     </row>
     <row r="19">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01150488111407951</v>
+        <v>0.01261425089707842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004152403321341383</v>
+        <v>0.004097571528398551</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005982877814293883</v>
+        <v>0.005860764738382446</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.004955432355096539</v>
+        <v>0.005004358958243834</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02441336849833053</v>
+        <v>0.02223149930181581</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03460350006361997</v>
+        <v>0.0349075530643229</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005236616348623373</v>
+        <v>0.005064034825485178</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.005019270314150504</v>
+        <v>0.005018354314523936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02254489689972415</v>
+        <v>0.02305040843693556</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02375747267105623</v>
+        <v>0.0237027278871581</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.008267459111387937</v>
+        <v>0.007849823652788039</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03021327128838876</v>
+        <v>0.04070592892996595</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05478620613378089</v>
+        <v>0.05697776743310123</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0407732318257194</v>
+        <v>0.04038183403248351</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04424959836403013</v>
+        <v>0.04806093721607076</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04547313984557249</v>
+        <v>0.04795028016446239</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08304473468939999</v>
+        <v>0.08106711723199402</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09060101200998445</v>
+        <v>0.0935791174547914</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02845393426696332</v>
+        <v>0.02737386393157248</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03318339382323097</v>
+        <v>0.02991988702103008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05753278256849811</v>
+        <v>0.06042515230648739</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05655589587288065</v>
+        <v>0.05622284022456839</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03022244429524322</v>
+        <v>0.02980967640019722</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02268415485873067</v>
+        <v>0.02361070465376848</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02401688564203969</v>
+        <v>0.02341920980294221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004985421299881748</v>
+        <v>0.00485002032640573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02760216917986466</v>
+        <v>0.02694715782352071</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01623777504371098</v>
+        <v>0.01670385378342211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01701989233751987</v>
+        <v>0.01612829222998301</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01140387094409991</v>
+        <v>0.01176687033045941</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04102523540598849</v>
+        <v>0.04143210934419284</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02318845508858067</v>
+        <v>0.02278329932644499</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02259166577289165</v>
+        <v>0.02302722467905913</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01087033580688314</v>
+        <v>0.01191855452324502</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03816367829818901</v>
+        <v>0.03879129127419352</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05848447847450446</v>
+        <v>0.06075042914752738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06259049486039321</v>
+        <v>0.06247788467443392</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03206234242362493</v>
+        <v>0.02935639341147123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06885765308869295</v>
+        <v>0.06650690070110056</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04618385962505921</v>
+        <v>0.04598107857533659</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04369299278057718</v>
+        <v>0.04209996662153832</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04121908638211844</v>
+        <v>0.04141338338686335</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07605828836732857</v>
+        <v>0.07931360100438374</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04554552024464305</v>
+        <v>0.04590812538243887</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0460942088224868</v>
+        <v>0.04420534161251891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03032490644376581</v>
+        <v>0.03159458326088427</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06450205469850522</v>
+        <v>0.06470293853552095</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.03318787225653571</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04647972325919168</v>
+        <v>0.04647972325919167</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.0456001127479783</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03799354784874447</v>
+        <v>0.03740852243455211</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01931885019259908</v>
+        <v>0.01863694121685324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02171488654537547</v>
+        <v>0.02067974516696148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02540417949140994</v>
+        <v>0.02857069425633702</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02402393858381802</v>
+        <v>0.02501702043987456</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0254741737107179</v>
+        <v>0.02615151184532262</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02182126453048458</v>
+        <v>0.02167354382046697</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03318952146131506</v>
+        <v>0.03259290124867149</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03474883464375982</v>
+        <v>0.03520487150276603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02551063871458253</v>
+        <v>0.02556830005363711</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02376263221049522</v>
+        <v>0.0244236518985651</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03358314616712261</v>
+        <v>0.03375133448176718</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07742771848331165</v>
+        <v>0.08009976895310247</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04730125110451558</v>
+        <v>0.04636336668002459</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0518857385986876</v>
+        <v>0.0505128874558635</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05745142475516444</v>
+        <v>0.06005867721977839</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05606073995460146</v>
+        <v>0.05811060439975587</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05648069300135298</v>
+        <v>0.0559431672624049</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05091018717188089</v>
+        <v>0.04978572399603615</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06393621630783439</v>
+        <v>0.06272134057368334</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05939726899174384</v>
+        <v>0.05960024741923758</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04534336614477341</v>
+        <v>0.04606611547156685</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04356179517755435</v>
+        <v>0.04503289174203216</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05496142959815875</v>
+        <v>0.05579584233082754</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.03233044490673399</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4272</v>
+        <v>4254</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6916</v>
+        <v>6749</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8099</v>
+        <v>7765</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5714</v>
+        <v>6025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11928</v>
+        <v>11976</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11861</v>
+        <v>11935</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3715</v>
+        <v>2959</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12572</v>
+        <v>13069</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21988</v>
+        <v>22292</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23143</v>
+        <v>23638</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9484</v>
+        <v>8622</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17889</v>
+        <v>18054</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21676</v>
+        <v>21331</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30258</v>
+        <v>30245</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9748</v>
+        <v>9153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21228</v>
+        <v>21226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29530</v>
+        <v>28702</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28386</v>
+        <v>28783</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15039</v>
+        <v>14491</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32738</v>
+        <v>33071</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>43718</v>
+        <v>44387</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>49994</v>
+        <v>50562</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6322</v>
+        <v>6944</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11141</v>
+        <v>10863</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3866</v>
+        <v>3029</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10283</v>
+        <v>10345</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11322</v>
+        <v>11689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5983</v>
+        <v>5254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5744</v>
+        <v>4907</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20303</v>
+        <v>20909</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20838</v>
+        <v>21203</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19934</v>
+        <v>20055</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11805</v>
+        <v>11485</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>35440</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21861</v>
+        <v>22440</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28110</v>
+        <v>27672</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14867</v>
+        <v>14992</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31238</v>
+        <v>30181</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27491</v>
+        <v>29483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20312</v>
+        <v>19628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18639</v>
+        <v>18405</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41017</v>
+        <v>41320</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43745</v>
+        <v>43630</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41872</v>
+        <v>41654</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29988</v>
+        <v>29662</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>64329</v>
+        <v>63987</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3755</v>
+        <v>3667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4157</v>
+        <v>4499</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2382</v>
+        <v>2457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2806</v>
+        <v>1933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6980</v>
+        <v>7082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4742</v>
+        <v>4770</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4924</v>
+        <v>4911</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13548</v>
+        <v>13189</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11717</v>
+        <v>11976</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6534</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9220</v>
+        <v>9106</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15044</v>
+        <v>14340</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16370</v>
+        <v>17579</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13376</v>
+        <v>13196</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12437</v>
+        <v>12595</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21203</v>
+        <v>21625</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18613</v>
+        <v>17877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11187</v>
+        <v>10783</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17821</v>
+        <v>16763</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30993</v>
+        <v>30465</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29703</v>
+        <v>29907</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19429</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3835</v>
+        <v>3654</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3953</v>
+        <v>4211</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3610</v>
+        <v>3754</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11238</v>
+        <v>11564</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8588</v>
+        <v>8804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4801</v>
+        <v>4685</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3874</v>
+        <v>4028</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17775</v>
+        <v>17548</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15251</v>
+        <v>15430</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10422</v>
+        <v>10621</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7022</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16471</v>
+        <v>16235</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17834</v>
+        <v>18703</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16189</v>
+        <v>16852</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22032</v>
+        <v>22006</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28555</v>
+        <v>27167</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24671</v>
+        <v>24136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17378</v>
+        <v>16575</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17284</v>
+        <v>17512</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36793</v>
+        <v>37647</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>38197</v>
+        <v>36573</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28529</v>
+        <v>28318</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29459</v>
+        <v>30167</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4335</v>
+        <v>3690</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1954</v>
+        <v>2261</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2186</v>
+        <v>1910</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2659</v>
+        <v>2573</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2077</v>
+        <v>1983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1788</v>
+        <v>1805</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2963</v>
+        <v>2682</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8068</v>
+        <v>9080</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5775</v>
+        <v>5076</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6349</v>
+        <v>5776</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6816</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16024</v>
+        <v>14647</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11095</v>
+        <v>10634</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11622</v>
+        <v>12730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10722</v>
+        <v>10640</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13905</v>
+        <v>14858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12454</v>
+        <v>11828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10832</v>
+        <v>10778</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13494</v>
+        <v>13653</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>22972</v>
+        <v>24419</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>18568</v>
+        <v>18177</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19196</v>
+        <v>19158</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>18926</v>
+        <v>19605</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2876</v>
+        <v>3153</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1494</v>
+        <v>1464</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6465</v>
+        <v>5888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8552</v>
+        <v>8627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1317</v>
+        <v>1274</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>1976</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>11606</v>
+        <v>11866</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11421</v>
+        <v>11395</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4144</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5718</v>
+        <v>7704</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13695</v>
+        <v>14243</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9525</v>
+        <v>9434</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11051</v>
+        <v>12002</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9299</v>
+        <v>9805</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21993</v>
+        <v>21469</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22391</v>
+        <v>23127</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7158</v>
+        <v>6886</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13066</v>
+        <v>11781</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>29618</v>
+        <v>31107</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27189</v>
+        <v>27029</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>15150</v>
+        <v>14943</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10533</v>
+        <v>10963</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13812</v>
+        <v>13468</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2205</v>
+        <v>2145</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19257</v>
+        <v>18800</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8758</v>
+        <v>9010</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10654</v>
+        <v>10096</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5554</v>
+        <v>5731</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>30416</v>
+        <v>30717</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23274</v>
+        <v>22867</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>27134</v>
+        <v>27657</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>10102</v>
+        <v>11077</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>54920</v>
+        <v>55823</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27156</v>
+        <v>28208</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35995</v>
+        <v>35930</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>14181</v>
+        <v>12985</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48041</v>
+        <v>46401</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24910</v>
+        <v>24801</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27351</v>
+        <v>26354</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20076</v>
+        <v>20170</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56389</v>
+        <v>58802</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45714</v>
+        <v>46078</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>55363</v>
+        <v>53094</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>28183</v>
+        <v>29363</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>92823</v>
+        <v>93112</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19968</v>
+        <v>19660</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12246</v>
+        <v>11814</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>13903</v>
+        <v>13240</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19588</v>
+        <v>22029</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14232</v>
+        <v>14820</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17890</v>
+        <v>18366</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>15086</v>
+        <v>14984</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>26894</v>
+        <v>26410</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>38848</v>
+        <v>39358</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>34087</v>
+        <v>34164</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>31642</v>
+        <v>32522</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>53107</v>
+        <v>53373</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>40692</v>
+        <v>42097</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>29984</v>
+        <v>29390</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>33220</v>
+        <v>32341</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>44298</v>
+        <v>46308</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>33211</v>
+        <v>34425</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>39666</v>
+        <v>39289</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>35196</v>
+        <v>34419</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>51808</v>
+        <v>50824</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>66404</v>
+        <v>66631</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>60588</v>
+        <v>61553</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>58007</v>
+        <v>59965</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>86914</v>
+        <v>88233</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
     </row>
     <row r="40">
